--- a/mk/results.xlsx
+++ b/mk/results.xlsx
@@ -12,9 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>я устала</t>
+  </si>
+  <si>
+    <t>7:12</t>
+  </si>
   <si>
     <t>полина парам парам</t>
+  </si>
+  <si>
+    <t>ляляля</t>
+  </si>
+  <si>
+    <t>7 утра</t>
+  </si>
+  <si>
+    <t>fkkdj</t>
+  </si>
+  <si>
+    <t>Polina</t>
   </si>
 </sst>
 </file>
@@ -59,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -70,7 +88,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n" s="0">
         <v>300.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/mk/results.xlsx
+++ b/mk/results.xlsx
@@ -12,27 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>я устала</t>
-  </si>
-  <si>
-    <t>7:12</t>
-  </si>
-  <si>
-    <t>полина парам парам</t>
-  </si>
-  <si>
-    <t>ляляля</t>
-  </si>
-  <si>
-    <t>7 утра</t>
-  </si>
-  <si>
-    <t>fkkdj</t>
-  </si>
-  <si>
-    <t>Polina</t>
+    <t>ушталь</t>
   </si>
 </sst>
 </file>
@@ -77,7 +59,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -88,55 +70,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n" s="0">
-        <v>100.0</v>
+        <v>200.0</v>
       </c>
     </row>
   </sheetData>
